--- a/数据结构考点总结.xlsx
+++ b/数据结构考点总结.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="158000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,34 +32,41 @@
     <t>排序</t>
   </si>
   <si>
-    <t>基数排序要走几趟</t>
-  </si>
-  <si>
     <t>图</t>
   </si>
   <si>
-    <t>1.快排的；5.几种排序对比</t>
-  </si>
-  <si>
-    <t>有向图的拓扑序列；2.邻接矩阵：n顶点e个边</t>
-  </si>
-  <si>
     <t>树</t>
   </si>
   <si>
-    <t>二叉树给节点数，算最小高度；二叉树遍历先后序；哈夫曼树；度为2的树和二叉树有什么异同；</t>
-  </si>
-  <si>
     <t>线性表</t>
   </si>
   <si>
-    <t>链表做栈的存储结构时的退栈操作；双向链表删除节点；顺序表和链表的适用情况</t>
-  </si>
-  <si>
     <t>总述型</t>
   </si>
   <si>
-    <t>数据元素之间的关系在计算机中有哪些表示方法</t>
+    <t>1.快排的时间复杂度；
+5.几种排序空间复杂度对比</t>
+  </si>
+  <si>
+    <t>3.二叉树给节点数，算最小高度；
+6.二叉树遍历先后序遍历序列正好相反的树满足(任一结点都无左孩子或任一结点都无右孩子,高度等于节点数)；
+7.哈夫曼树总结点数(2n-1)求叶子节点数(n)；
+度为2的树和二叉树有什么异同；</t>
+  </si>
+  <si>
+    <t>8.基数排序要走几趟,才使得关键字有序</t>
+  </si>
+  <si>
+    <t>4.链表做栈的存储结构时的退栈操作时要考虑什么(必须判别栈是否空)；
+9.双向链表删除节点的代码；
+顺序表和链表的适用情况</t>
+  </si>
+  <si>
+    <t>10.有向图的拓扑序列；
+2.n个点e条边的无向图邻接矩阵零元素个数</t>
+  </si>
+  <si>
+    <t>二4.数据元素之间的关系在计算机中有哪些表示方法</t>
   </si>
 </sst>
 </file>
@@ -424,7 +431,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,15 +459,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="133" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -469,9 +476,9 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="76" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -485,18 +492,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -504,7 +511,7 @@
     </row>
     <row r="7" spans="1:5" ht="38" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>

--- a/数据结构考点总结.xlsx
+++ b/数据结构考点总结.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>时间、空间复杂度</t>
   </si>
@@ -48,32 +48,91 @@
 5.几种排序空间复杂度对比</t>
   </si>
   <si>
-    <t>3.二叉树给节点数，算最小高度；
+    <t>10.有向图的拓扑序列；
+2.n个点e条边的无向图邻接矩阵零元素个数</t>
+  </si>
+  <si>
+    <t>二1.队列和堆栈的异同;
+二4.数据元素之间的关系在计算机中有哪些表示方法</t>
+  </si>
+  <si>
+    <t>8.基数排序要走几趟,才使得关键字有序
+二5.堆排/快排/合并排序的适用情况</t>
+  </si>
+  <si>
+    <t>Hash表</t>
+  </si>
+  <si>
+    <t>三4.根据散列函数mod,线性探查法处理冲突,写出散列表</t>
+  </si>
+  <si>
+    <r>
+      <t>3.二叉树给节点数，算最小高度；
 6.二叉树遍历先后序遍历序列正好相反的树满足(任一结点都无左孩子或任一结点都无右孩子,高度等于节点数)；
 7.哈夫曼树总结点数(2n-1)求叶子节点数(n)；
-度为2的树和二叉树有什么异同；</t>
-  </si>
-  <si>
-    <t>8.基数排序要走几趟,才使得关键字有序</t>
+二2.度为2的树和二叉树有什么异同；
+三2.求不两个同复杂度的算法完成同样工作量所花时间
+三3.写出克鲁斯卡尔(加边)生成树的各
+个边的顺序
+三5.已知前序和中序,画出</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">后序线索二叉树
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四1.读懂交换子树的代码</t>
+    </r>
   </si>
   <si>
     <t>4.链表做栈的存储结构时的退栈操作时要考虑什么(必须判别栈是否空)；
 9.双向链表删除节点的代码；
-顺序表和链表的适用情况</t>
-  </si>
-  <si>
-    <t>10.有向图的拓扑序列；
-2.n个点e条边的无向图邻接矩阵零元素个数</t>
-  </si>
-  <si>
-    <t>二4.数据元素之间的关系在计算机中有哪些表示方法</t>
+二3.顺序表和链表的适用情况
+三1.根据静态链表写出线性表
+四2.读懂把单链表第一个节点连到最后一个的代码
+四3.读懂链表内在首位或比它值大的地方插入元素的代码
+四4.读懂删除不减链表L中大于mink小于maxk的元素的代码
+四4.读懂把字符串插入和输出队列和链表的代码
+五.写代码使单循环链表改为双循环</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +164,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
@@ -431,7 +497,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,34 +531,34 @@
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="133" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="266" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="266" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="38" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -503,28 +569,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">

--- a/数据结构考点总结.xlsx
+++ b/数据结构考点总结.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>时间、空间复杂度</t>
   </si>
@@ -126,6 +126,27 @@
 四4.读懂删除不减链表L中大于mink小于maxk的元素的代码
 四4.读懂把字符串插入和输出队列和链表的代码
 五.写代码使单循环链表改为双循环</t>
+  </si>
+  <si>
+    <t>1.逻辑结构和存储结构都有哪几种</t>
+  </si>
+  <si>
+    <t>2.从长度n的线性表中删除第i个元素,要向前移动几个元素
+3.链表的特点
+4.链栈比顺序栈的优点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.树中所有节点度之和等于所有节点数加()
+6.先序和后序相反的二叉树一定是(高度等于节点数)的二叉树
+7.非空二叉树的中序遍历序列中,根节点的右边(只有右子树上的所有节点)
+</t>
+  </si>
+  <si>
+    <t>8.无向图的邻接矩阵一定是(对称矩阵)
+9.判断有向图是否有环的方法(法一,拓扑排序，如果能完成对图中所有节点的排序的话，就说明这个图中没有环，而如果不能完成，则说明有环;法二:找出一个强连通子图则存在一个环)</t>
+  </si>
+  <si>
+    <t>10.第一趟排序后,任何元素的位置都不能确定的是(归并/快排)</t>
   </si>
 </sst>
 </file>
@@ -199,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,7 +232,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -496,14 +534,14 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="35" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,7 +550,7 @@
       <c r="B1" s="2">
         <v>2013</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5">
         <v>2014</v>
       </c>
       <c r="D1" s="2">
@@ -527,7 +565,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
@@ -538,7 +576,9 @@
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
@@ -549,30 +589,36 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="38" x14ac:dyDescent="0.2">
@@ -582,8 +628,8 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.25">
@@ -593,42 +639,44 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>

--- a/数据结构考点总结.xlsx
+++ b/数据结构考点总结.xlsx
@@ -128,25 +128,32 @@
 五.写代码使单循环链表改为双循环</t>
   </si>
   <si>
-    <t>1.逻辑结构和存储结构都有哪几种</t>
-  </si>
-  <si>
-    <t>2.从长度n的线性表中删除第i个元素,要向前移动几个元素
-3.链表的特点
-4.链栈比顺序栈的优点</t>
+    <t>10.第一趟排序后,任何元素的位置都不能确定的是(插入排序)</t>
+  </si>
+  <si>
+    <t>1.逻辑结构和存储结构都有哪几种
+二1.数据的5种最常见的运算(插入/删除/修改/查找/排序)</t>
   </si>
   <si>
     <t xml:space="preserve">5.树中所有节点度之和等于所有节点数加()
 6.先序和后序相反的二叉树一定是(高度等于节点数)的二叉树
 7.非空二叉树的中序遍历序列中,根节点的右边(只有右子树上的所有节点)
+二4.一颗257节点的完全二叉树,深度为(log2(n+1)向上取整=9)
 </t>
   </si>
   <si>
     <t>8.无向图的邻接矩阵一定是(对称矩阵)
-9.判断有向图是否有环的方法(法一,拓扑排序，如果能完成对图中所有节点的排序的话，就说明这个图中没有环，而如果不能完成，则说明有环;法二:找出一个强连通子图则存在一个环)</t>
-  </si>
-  <si>
-    <t>10.第一趟排序后,任何元素的位置都不能确定的是(归并/快排)</t>
+9.判断有向图是否有环的方法(法一,拓扑排序，如果能完成对图中所有节点的排序的话，就说明这个图中没有环，而如果不能完成，则说明有环;法二:找出一个强连通子图则存在一个环)
+二5.稀疏图用(邻接表)存储比较省空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.从长度n的线性表中删除第i个元素,要向前移动几个元素
+3.链表的特点
+4.链栈比顺序栈的优点
+二2.栈下溢是指在(栈为空)的时候进行(出栈)操作
+二3.在n个单元的循环队列中,队满时有(n-1)个元素
+三1.线性表中头结点的作用:    使得头指针指向头结点，不论链表是否为空，头指针总是非空。而且头指针的设置使得对链表的第一个位置上的操作与在表其他位置上的操作一致(都是在某一结点之后)。
+</t>
   </si>
 </sst>
 </file>
@@ -535,7 +542,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +589,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="266" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="378" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -590,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
@@ -603,12 +610,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="231" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -632,7 +639,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -640,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1"/>
@@ -682,5 +689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/数据结构考点总结.xlsx
+++ b/数据结构考点总结.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunpeifeng/Desktop/SourceTree/DataStruct_OmniGraffle-master/DataStruct_OmniGraffle-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Desktop\SourceTree\DataStruct_OmniGraffle-master\DataStruct_OmniGraffle-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>时间、空间复杂度</t>
   </si>
@@ -128,43 +128,56 @@
 五.写代码使单循环链表改为双循环</t>
   </si>
   <si>
-    <t>10.第一趟排序后,任何元素的位置都不能确定的是(插入排序)</t>
+    <t>8.无向图的邻接矩阵一定是(对称矩阵)
+9.判断有向图是否有环的方法(法一,拓扑排序，如果能完成对图中所有节点的排序的话，就说明这个图中没有环，而如果不能完成，则说明有环;法二:找出一个强连通子图则存在一个环)
+二5.稀疏图用(邻接表)存储比较省空间</t>
   </si>
   <si>
     <t>1.逻辑结构和存储结构都有哪几种
-二1.数据的5种最常见的运算(插入/删除/修改/查找/排序)</t>
+二1.数据的5种最常见的运算(插入/删除/修改/查找/排序)
+三5.逻辑结构和存储结构的关系</t>
   </si>
   <si>
     <t xml:space="preserve">5.树中所有节点度之和等于所有节点数加()
 6.先序和后序相反的二叉树一定是(高度等于节点数)的二叉树
 7.非空二叉树的中序遍历序列中,根节点的右边(只有右子树上的所有节点)
 二4.一颗257节点的完全二叉树,深度为(log2(n+1)向上取整=9)
+三4.什么是满二叉树
+四1.根据前序和中序建立二叉树
 </t>
   </si>
   <si>
-    <t>8.无向图的邻接矩阵一定是(对称矩阵)
-9.判断有向图是否有环的方法(法一,拓扑排序，如果能完成对图中所有节点的排序的话，就说明这个图中没有环，而如果不能完成，则说明有环;法二:找出一个强连通子图则存在一个环)
-二5.稀疏图用(邻接表)存储比较省空间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.从长度n的线性表中删除第i个元素,要向前移动几个元素
+    <t>四2.根据散列函数mod,线性探测开放地址法处理冲突,写出散列表
+计算成功的/不成功的平均查找长度</t>
+  </si>
+  <si>
+    <t>10.第一趟排序后,任何元素的位置都不能确定的是(插入排序)
+四3.对一组数写冒泡/快排/堆排/归并的第一趟排序后的结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.从长度n的线性表中删除第i个元素,要向前移动几个元素
 3.链表的特点
 4.链栈比顺序栈的优点
+三3.顺序栈的结构特点,空和满的判断条件
 二2.栈下溢是指在(栈为空)的时候进行(出栈)操作
 二3.在n个单元的循环队列中,队满时有(n-1)个元素
 三1.线性表中头结点的作用:    使得头指针指向头结点，不论链表是否为空，头指针总是非空。而且头指针的设置使得对链表的第一个位置上的操作与在表其他位置上的操作一致(都是在某一结点之后)。
-</t>
+三2.双向链表:双向链表也叫双链表，是链表的一种.它的每个数据结点中都有两个指针，分别指向直接后继和直接前驱。所以，从双向链表中的任意一个结点开始，都可以很方便地访问它的前驱结点和后继结点。
+四4.对于一个栈，输入ABCD，给出全部输出序列（对于长度为n的序列，会产生1, 1, 2, 5, 14, 42, 132, 429种不同的出栈序列）
+h(n)=C(2n,n)/(n+1) (n=0,1,2,...)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,7 +185,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,14 +193,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,6 +216,13 @@
       <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,22 +272,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -536,23 +556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
     <col min="3" max="3" width="35" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
         <v>2013</v>
@@ -565,7 +585,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="60.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -576,7 +596,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="266" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="303.75">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -589,7 +609,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="378" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -597,12 +617,12 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="121.5">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -610,12 +630,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="231" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="222.75">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -623,23 +643,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="101.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="121.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -652,35 +674,35 @@
       <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
@@ -688,7 +710,8 @@
       <c r="E13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>